--- a/AAII_Financials/Quarterly/CCUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCUR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>CCUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,131 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>7900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -813,23 +820,26 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>3200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,23 +870,26 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>4700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>15100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,23 +940,26 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
         <v>1700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>8200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,23 +1005,26 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E14" s="3">
         <v>-400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1014,8 +1034,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1052,8 +1075,8 @@
       <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1061,8 +1084,8 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1300</v>
       </c>
       <c r="H17" s="3">
         <v>1300</v>
       </c>
       <c r="I17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1500</v>
       </c>
       <c r="Q17" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>800</v>
+      </c>
+      <c r="E18" s="3">
         <v>600</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>6400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>27000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,78 +1244,82 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>2400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-7800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-27600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-15000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E21" s="3">
         <v>3100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1290,23 +1327,26 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1316,11 +1356,11 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1328,20 +1368,20 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-1500</v>
       </c>
       <c r="Q23" s="3">
         <v>-1500</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-8700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-900</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-1000</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
         <v>3000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>7200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-1500</v>
       </c>
       <c r="Q26" s="3">
         <v>-1500</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>700</v>
+      </c>
+      <c r="E27" s="3">
         <v>2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>7200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-1500</v>
       </c>
       <c r="Q27" s="3">
         <v>-1500</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1645,8 +1706,8 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1658,31 +1719,34 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-8900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>22700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>32600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>7800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>27600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>15000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>15500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>700</v>
+      </c>
+      <c r="E33" s="3">
         <v>2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>33100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>700</v>
+      </c>
+      <c r="E35" s="3">
         <v>2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>33100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,134 +2139,141 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E41" s="3">
         <v>7100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>34900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>44900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>57500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>35900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>18800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E42" s="3">
         <v>33300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>34800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>27800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>21100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>18300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>20000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>6900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2400</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E43" s="3">
         <v>10000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>12600</v>
       </c>
       <c r="G43" s="3">
         <v>12600</v>
       </c>
       <c r="H43" s="3">
+        <v>12600</v>
+      </c>
+      <c r="I43" s="3">
         <v>10800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>3500</v>
       </c>
       <c r="L43" s="3">
         <v>3500</v>
       </c>
       <c r="M43" s="3">
-        <v>8900</v>
+        <v>3500</v>
       </c>
       <c r="N43" s="3">
         <v>8900</v>
@@ -2189,13 +2282,16 @@
         <v>8900</v>
       </c>
       <c r="P43" s="3">
+        <v>8900</v>
+      </c>
+      <c r="Q43" s="3">
         <v>7900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2220,149 +2316,158 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3">
         <v>1600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1800</v>
       </c>
       <c r="G45" s="3">
         <v>1800</v>
       </c>
       <c r="H45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E46" s="3">
         <v>52700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>50900</v>
-      </c>
-      <c r="F46" s="3">
-        <v>50200</v>
       </c>
       <c r="G46" s="3">
         <v>50200</v>
       </c>
       <c r="H46" s="3">
+        <v>50200</v>
+      </c>
+      <c r="I46" s="3">
         <v>51500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>56700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>56600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>65600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>69800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>50200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>54900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>31900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>29900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6500</v>
+        <v>4500</v>
       </c>
       <c r="E47" s="3">
         <v>6500</v>
       </c>
       <c r="F47" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G47" s="3">
         <v>3700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2300</v>
       </c>
       <c r="J47" s="3">
         <v>2300</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>2300</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -2382,23 +2487,26 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="E48" s="3">
         <v>3500</v>
       </c>
       <c r="F48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G48" s="3">
         <v>3300</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
@@ -2415,48 +2523,51 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>1600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E49" s="3">
         <v>3900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3700</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1100</v>
       </c>
       <c r="F52" s="3">
         <v>1100</v>
       </c>
       <c r="G52" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="H52" s="3">
         <v>600</v>
       </c>
       <c r="I52" s="3">
+        <v>600</v>
+      </c>
+      <c r="J52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1200</v>
-      </c>
-      <c r="O52" s="3">
-        <v>2100</v>
       </c>
       <c r="P52" s="3">
         <v>2100</v>
       </c>
       <c r="Q52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R52" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E54" s="3">
         <v>67400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>66000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>62500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>59700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>56200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>60000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>61300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>66800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>53100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>57800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2761,52 +2892,55 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>900</v>
       </c>
       <c r="I57" s="3">
         <v>900</v>
       </c>
       <c r="J57" s="3">
+        <v>900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>9900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2822,8 +2956,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2843,31 +2977,34 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2876,69 +3013,75 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>900</v>
       </c>
       <c r="I60" s="3">
         <v>900</v>
       </c>
       <c r="J60" s="3">
+        <v>900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2946,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>1600</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2984,37 +3127,40 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E62" s="3">
         <v>7300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>4000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4100</v>
-      </c>
-      <c r="L62" s="3">
-        <v>4700</v>
       </c>
       <c r="M62" s="3">
         <v>4700</v>
@@ -3023,16 +3169,19 @@
         <v>4700</v>
       </c>
       <c r="O62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P62" s="3">
         <v>6400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E66" s="3">
         <v>11000</v>
-      </c>
-      <c r="E66" s="3">
-        <v>10900</v>
       </c>
       <c r="F66" s="3">
         <v>10900</v>
       </c>
       <c r="G66" s="3">
+        <v>10900</v>
+      </c>
+      <c r="H66" s="3">
         <v>7100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-148500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-144700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-147400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-150800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-151600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-153000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-151500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-151800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-150100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-149000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-167700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-165500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-197400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-194600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-193400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E76" s="3">
         <v>56400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>55100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>51600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>52600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>51400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>55200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>56100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>58900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>62100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>43500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>700</v>
+      </c>
+      <c r="E81" s="3">
         <v>2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>33100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3844,7 +4043,7 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -3856,25 +4055,28 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
       </c>
       <c r="N83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>400</v>
       </c>
       <c r="P83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q83" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4117,46 +4334,49 @@
         <v>1500</v>
       </c>
       <c r="E89" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4204,10 +4425,10 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-200</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
@@ -4219,10 +4440,13 @@
         <v>-200</v>
       </c>
       <c r="Q91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E94" s="3">
         <v>1800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>2100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>27200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>26400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,13 +4614,14 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-4400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4408,19 +4642,19 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-1100</v>
       </c>
       <c r="P96" s="3">
         <v>-1100</v>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,40 +4812,43 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-6300</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-2200</v>
       </c>
       <c r="K100" s="3">
         <v>-2200</v>
       </c>
       <c r="L100" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-1100</v>
       </c>
       <c r="N100" s="3">
         <v>-1100</v>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4658,56 +4907,62 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E102" s="3">
         <v>3300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>25900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>20100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>CCUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,145 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>900</v>
+      </c>
+      <c r="F8" s="3">
         <v>1500</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1700</v>
       </c>
       <c r="G8" s="3">
         <v>1800</v>
       </c>
       <c r="H8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>7900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>27600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>15000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>15500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -823,23 +837,29 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>3200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>12500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>6500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>6100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,23 +893,29 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>4700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>15100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>8500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>9400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -943,23 +971,29 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
         <v>1700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>8200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>3100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>2800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,40 +1042,46 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F14" s="3">
         <v>-700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1058,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1078,20 +1124,20 @@
       <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="I15" s="3">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F18" s="3">
         <v>800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>600</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>6400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>27000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>12800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>14000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1311,122 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>-7800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-27600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-15500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>1300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>3900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1500</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
+      <c r="L21" s="3">
+        <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1359,35 +1439,35 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1395,108 +1475,126 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>3700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-1500</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-8700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-900</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-1000</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>7200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>7200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1709,11 +1831,11 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1722,31 +1844,37 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-8900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>22700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>32600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>1400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>7800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>27600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>15000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>15500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>19900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>33100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>19900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>33100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,158 +2312,178 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F41" s="3">
         <v>13600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>7100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>8100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>14700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>20900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>34900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>33000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>44900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>57500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>31600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>35900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>15800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>18800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F42" s="3">
         <v>21500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>33300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>34800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>27800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>21100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>18300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>14800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>20000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>16200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>8000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>6300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>6900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>2400</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F43" s="3">
         <v>10900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>10000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>10100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>12600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>12600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>10800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3500</v>
-      </c>
-      <c r="N43" s="3">
-        <v>8900</v>
-      </c>
-      <c r="O43" s="3">
-        <v>8900</v>
       </c>
       <c r="P43" s="3">
         <v>8900</v>
       </c>
       <c r="Q43" s="3">
+        <v>8900</v>
+      </c>
+      <c r="R43" s="3">
+        <v>8900</v>
+      </c>
+      <c r="S43" s="3">
         <v>7900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2319,162 +2511,180 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" s="3">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3">
         <v>1600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>2000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>54700</v>
+      </c>
+      <c r="F46" s="3">
         <v>47200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>52700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>50900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>50200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>50200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>51500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>56700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>56600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>65600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>69800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>50200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>54900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>31900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>29900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F47" s="3">
         <v>4500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>6500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>6500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>3700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>5300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>4100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2490,29 +2700,35 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E48" s="3">
         <v>4000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G48" s="3">
         <v>3500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3300</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
@@ -2526,54 +2742,60 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
         <v>1600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F49" s="3">
         <v>3800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>4100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>4200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2590,8 +2812,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2924,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>2100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>69900</v>
+      </c>
+      <c r="F54" s="3">
         <v>60000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>67400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>66000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>62500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>59700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>56200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>60000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>61300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>66800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>71600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>53100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>57800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>36300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>34800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,73 +3140,81 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>5800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>8200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>9900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>5900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2959,11 +3227,11 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2980,108 +3248,126 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>6700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>6600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>4800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>9600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>16600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>12500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3092,17 +3378,17 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>1600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3130,58 +3416,70 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6900</v>
+        <v>5000</v>
       </c>
       <c r="E62" s="3">
-        <v>7300</v>
+        <v>4900</v>
       </c>
       <c r="F62" s="3">
         <v>6900</v>
       </c>
       <c r="G62" s="3">
+        <v>7300</v>
+      </c>
+      <c r="H62" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I62" s="3">
         <v>7100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>5700</v>
-      </c>
-      <c r="I62" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>3900</v>
       </c>
       <c r="K62" s="3">
         <v>4000</v>
       </c>
       <c r="L62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="M62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N62" s="3">
         <v>4100</v>
-      </c>
-      <c r="M62" s="3">
-        <v>4700</v>
-      </c>
-      <c r="N62" s="3">
-        <v>4700</v>
       </c>
       <c r="O62" s="3">
         <v>4700</v>
       </c>
       <c r="P62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="R62" s="3">
         <v>6400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>6300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9800</v>
+      </c>
+      <c r="F66" s="3">
         <v>8800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>11000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>10900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>7100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>11700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>14300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>23000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>18800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-142700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-143100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-148500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-144700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-147400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-150800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-151600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-153000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-151500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-151800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-150100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-149000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-167700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-165500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-197400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-194600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-193400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F76" s="3">
         <v>51200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>56400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>55100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>51600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>52600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>51400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>55200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>56100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>58900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>62100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>41500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>43500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>13400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>16000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>19900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>33100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4046,10 +4444,10 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4058,25 +4456,31 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>1500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-5200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,13 +4835,15 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4428,13 +4870,13 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-200</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
@@ -4443,10 +4885,16 @@
         <v>-200</v>
       </c>
       <c r="R91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F94" s="3">
         <v>9500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>1800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-9300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-6200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-13400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>2100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-9200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-6500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>27200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>26400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,20 +5081,22 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-4400</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -4645,13 +5113,13 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-300</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-1100</v>
       </c>
       <c r="O96" s="3">
         <v>-1200</v>
@@ -4660,13 +5128,19 @@
         <v>-1100</v>
       </c>
       <c r="Q96" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="R96" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="T96" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,46 +5301,52 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-6300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-2200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-1100</v>
       </c>
       <c r="P100" s="3">
         <v>-1100</v>
@@ -4865,8 +5357,14 @@
       <c r="R100" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4910,59 +5408,71 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F102" s="3">
         <v>4700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>3300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-6600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-6300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-13900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-11900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-12700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>25900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-4300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>20100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CCUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CCUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>CCUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="E8" s="3">
         <v>900</v>
       </c>
       <c r="F8" s="3">
+        <v>900</v>
+      </c>
+      <c r="G8" s="3">
         <v>1500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>7900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>27600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>15000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>15500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -843,23 +849,26 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>3200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>12500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,23 +908,26 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>4700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>15100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>8500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -977,23 +990,26 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3">
         <v>1700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,23 +1076,23 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1083,8 +1102,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1130,8 +1152,8 @@
       <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>100</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1139,8 +1161,8 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1300</v>
       </c>
       <c r="K17" s="3">
         <v>1300</v>
       </c>
       <c r="L17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2200</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1500</v>
       </c>
       <c r="T17" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>6400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>27000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>12800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,96 +1345,100 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-27600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-15000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-15500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E21" s="3">
         <v>700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1500</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
@@ -1410,23 +1446,26 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1800</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-1000</v>
       </c>
       <c r="T21" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1445,11 +1484,11 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1457,20 +1496,20 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-1500</v>
       </c>
       <c r="T23" s="3">
         <v>-1500</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-6500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-8700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-900</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-1000</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>7200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2200</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-1500</v>
       </c>
       <c r="T26" s="3">
         <v>-1500</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>7200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2200</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-1500</v>
       </c>
       <c r="T27" s="3">
         <v>-1500</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-1500</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1837,8 +1897,8 @@
       <c r="H29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1850,31 +1910,34 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-8900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>22700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>32600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>1400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>7800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>27600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>15000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>15500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>33100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>33100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,161 +2399,168 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E41" s="3">
         <v>14200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>34900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>33000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>44900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>57500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>31600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>35900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>18800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E42" s="3">
         <v>26600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>33700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>21500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>33300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>34800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>27800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>21100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>18300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>14800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>20000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>8000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>6900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2400</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E43" s="3">
         <v>14200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>15300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>12600</v>
       </c>
       <c r="J43" s="3">
         <v>12600</v>
       </c>
       <c r="K43" s="3">
+        <v>12600</v>
+      </c>
+      <c r="L43" s="3">
         <v>10800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>3500</v>
       </c>
       <c r="O43" s="3">
         <v>3500</v>
       </c>
       <c r="P43" s="3">
-        <v>8900</v>
+        <v>3500</v>
       </c>
       <c r="Q43" s="3">
         <v>8900</v>
@@ -2477,13 +2569,16 @@
         <v>8900</v>
       </c>
       <c r="S43" s="3">
+        <v>8900</v>
+      </c>
+      <c r="T43" s="3">
         <v>7900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>10500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2517,176 +2612,185 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1800</v>
       </c>
       <c r="J45" s="3">
         <v>1800</v>
       </c>
       <c r="K45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>46700</v>
+      </c>
+      <c r="E46" s="3">
         <v>56100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>54700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>47200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>52700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>50900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>50200</v>
       </c>
       <c r="J46" s="3">
         <v>50200</v>
       </c>
       <c r="K46" s="3">
+        <v>50200</v>
+      </c>
+      <c r="L46" s="3">
         <v>51500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>56700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>56600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>65600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>69800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>50200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>54900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>31900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>29900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>33800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E47" s="3">
         <v>100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4500</v>
-      </c>
-      <c r="G47" s="3">
-        <v>6500</v>
       </c>
       <c r="H47" s="3">
         <v>6500</v>
       </c>
       <c r="I47" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J47" s="3">
         <v>3700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4100</v>
-      </c>
-      <c r="L47" s="3">
-        <v>2300</v>
       </c>
       <c r="M47" s="3">
         <v>2300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
+      <c r="N47" s="3">
+        <v>2300</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,23 +2822,23 @@
         <v>3600</v>
       </c>
       <c r="E48" s="3">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="F48" s="3">
         <v>4000</v>
       </c>
       <c r="G48" s="3">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="H48" s="3">
         <v>3500</v>
       </c>
       <c r="I48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J48" s="3">
         <v>3300</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
@@ -2748,57 +2855,60 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E49" s="3">
         <v>2300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E52" s="3">
         <v>7700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1100</v>
       </c>
       <c r="I52" s="3">
         <v>1100</v>
       </c>
       <c r="J52" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="K52" s="3">
         <v>600</v>
       </c>
       <c r="L52" s="3">
+        <v>600</v>
+      </c>
+      <c r="M52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1200</v>
-      </c>
-      <c r="R52" s="3">
-        <v>2100</v>
       </c>
       <c r="S52" s="3">
         <v>2100</v>
       </c>
       <c r="T52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U52" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E54" s="3">
         <v>69800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>69900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>60000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>67400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>66000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>62500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>59700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>56200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>60000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>61300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>66800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>71600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>53100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>57800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>36300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>34800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>39200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,19 +3271,20 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -3163,43 +3293,46 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>900</v>
       </c>
       <c r="L57" s="3">
         <v>900</v>
       </c>
       <c r="M57" s="3">
+        <v>900</v>
+      </c>
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>9900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3212,12 +3345,12 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3233,8 +3366,8 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3254,40 +3387,43 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
         <v>3500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3296,78 +3432,84 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
-      </c>
-      <c r="K60" s="3">
-        <v>900</v>
       </c>
       <c r="L60" s="3">
         <v>900</v>
       </c>
       <c r="M60" s="3">
+        <v>900</v>
+      </c>
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3384,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>1600</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3431,37 +3576,37 @@
         <v>5000</v>
       </c>
       <c r="E62" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F62" s="3">
         <v>4900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>4700</v>
       </c>
       <c r="P62" s="3">
         <v>4700</v>
@@ -3470,16 +3615,19 @@
         <v>4700</v>
       </c>
       <c r="R62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="S62" s="3">
         <v>6400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E66" s="3">
         <v>10200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>10900</v>
       </c>
       <c r="I66" s="3">
         <v>10900</v>
       </c>
       <c r="J66" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K66" s="3">
         <v>7100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>22100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-142700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-143100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-148500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-144700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-147400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-150800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-151600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-153000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-151500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-151800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-150100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-149000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-167700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-165500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-197400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-194600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-193400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E76" s="3">
         <v>59600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>60000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>51200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>56400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>55100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>51600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>52600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>51400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>55200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>56100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>58900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>62100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>41500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>43500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>33100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4450,7 +4648,7 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4462,25 +4660,28 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
       </c>
       <c r="Q83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>400</v>
       </c>
       <c r="S83" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T83" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>1500</v>
       </c>
       <c r="H89" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,16 +5056,17 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4876,10 +5096,10 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-200</v>
       </c>
       <c r="Q91" s="3">
         <v>-200</v>
@@ -4891,10 +5111,13 @@
         <v>-200</v>
       </c>
       <c r="T91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E94" s="3">
         <v>8500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>9500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>1800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>27200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>26400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5095,11 +5328,11 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-4400</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -5119,19 +5352,19 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-1100</v>
       </c>
       <c r="S96" s="3">
         <v>-1100</v>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,40 +5561,40 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-2200</v>
       </c>
       <c r="N100" s="3">
         <v>-2200</v>
       </c>
       <c r="O100" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-1100</v>
       </c>
       <c r="Q100" s="3">
         <v>-1100</v>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5414,65 +5662,71 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>8900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>4700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-12700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>25900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>20100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
     </row>
